--- a/public/Pelanggan/datadil(10).xlsx
+++ b/public/Pelanggan/datadil(10).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38BA4C9-914B-44AF-A718-E9B7F9BDD259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F627D2-B4E2-4A42-B8FF-136E77E0124E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,38 +28,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>sewa</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>BUNTER</t>
+  </si>
+  <si>
+    <t>CIKAREO SELATAN</t>
+  </si>
+  <si>
+    <t>WADO</t>
+  </si>
+  <si>
+    <t>hak milik</t>
   </si>
   <si>
     <t>ada</t>
   </si>
   <si>
-    <t>tidak ada</t>
-  </si>
-  <si>
-    <t>rt</t>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>YUSUF SULAEMAN</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,104 +405,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>123453453</v>
+        <v>1101001111</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>49094</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
-        <v>45412</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>4</v>
-      </c>
-      <c r="L1">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
       <c r="N1">
-        <v>4</v>
-      </c>
-      <c r="O1">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1">
+        <v>20069164</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
         <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1">
-        <v>56456</v>
-      </c>
-      <c r="AC1">
-        <v>17</v>
-      </c>
-      <c r="AD1">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>